--- a/classfiers/mega/welm/WELM_lin_results.xlsx
+++ b/classfiers/mega/welm/WELM_lin_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9914163090128756</v>
+        <v>0.9765258215962441</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9487179487179487</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.935064935064935</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9984139571768438</v>
+        <v>0.9970527556734453</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9656652360515021</v>
+        <v>0.9342723004694836</v>
       </c>
       <c r="C3" t="n">
-        <v>0.84</v>
+        <v>0.75</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9130434782608696</v>
+        <v>0.8372093023255814</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9943169398907103</v>
+        <v>0.9905303030303031</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.944206008583691</v>
+        <v>0.9292452830188679</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7647058823529411</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="D4" t="n">
-        <v>0.857142857142857</v>
+        <v>0.810126582278481</v>
       </c>
       <c r="E4" t="n">
-        <v>0.99116569704805</v>
+        <v>0.9738233397807864</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9396551724137931</v>
+        <v>0.9622641509433962</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8333333333333333</v>
+        <v>0.8918918918918919</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9960967993754879</v>
+        <v>0.999001568963058</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9482758620689655</v>
+        <v>0.9669811320754716</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7551020408163265</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8604651162790697</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9799263967882235</v>
+        <v>0.9934173669467787</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9578437176261655</v>
+        <v>0.9538577376206927</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8045623172345862</v>
+        <v>0.7984278738041064</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8875337991084891</v>
+        <v>0.8766767241303597</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9919839580558631</v>
+        <v>0.9907650668788743</v>
       </c>
     </row>
   </sheetData>
